--- a/ДЗ/Тестирование api/ДЗ 1 Введение в тестирование API.xlsx
+++ b/ДЗ/Тестирование api/ДЗ 1 Введение в тестирование API.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bjkzn\Тестировщик\SkyPro\ДЗ\Тестирование api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4B7D52A-CA85-46B7-895C-422A66077DA3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8249BD88-EB59-4051-BAD5-8FA4060F9349}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -66,9 +66,6 @@
     <t>-</t>
   </si>
   <si>
-    <t>Failed</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Отправить POST запрос на URL </t>
     </r>
@@ -99,18 +96,6 @@
     <t>В теле ответа "completed" имеет значение null</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Запрос успешно отправлен
-2. Код ответа: 200 OK или 201 Created
-3. Тело ответа в формате JSON имеет следующий вид:
-{
-    "id": {id_task},
-    "title": "новая задача",
-    "completed": false
-}                                                                        где {id_task} - сформированный уникальный номер задачи
-4. Задача отображается в списке задач
-</t>
-  </si>
-  <si>
     <t>Удаление задачи (вызов метода DELETE)</t>
   </si>
   <si>
@@ -124,8 +109,11 @@
 }</t>
   </si>
   <si>
+    <t>Тело запроса отсутсвует</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">Отправить POST запрос на URL </t>
+      <t xml:space="preserve">Отправить PATCH запрос на URL </t>
     </r>
     <r>
       <rPr>
@@ -138,8 +126,34 @@
     </r>
   </si>
   <si>
+    <r>
+      <t xml:space="preserve">Отправить DELETE запрос на URL </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FF1155CC"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://todo-app-sky.herokuapp.com/17638</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">1. Запрос успешно отправлен
-2. Код ответа: 200 OK или 201 Created
+2. Код ответа: 201 Created
+3. Тело ответа в формате JSON имеет следующий вид:
+{
+    "id": {id_task},
+    "title": "новая задача",
+    "completed": false
+}                                                                        где {id_task} - сформированный уникальный номер задачи
+4. Задача отображается в списке задач
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Запрос успешно отправлен
+2. Код ответа: 200 OK
 3. Тело ответа в формате JSON имеет следующий вид:
 {
     "id": 17638,
@@ -150,11 +164,8 @@
 </t>
   </si>
   <si>
-    <t>Тело запроса отсутсвует</t>
-  </si>
-  <si>
     <t xml:space="preserve">1. Запрос успешно отправлен
-2. Код ответа: 200 OK или 201 Created
+2. Код ответа: 200 OK
 3. Тело ответа в формате JSON имеет следующий вид:
 "todo was deleted"                                                                     
 4. Задача удалилась из списка задач
@@ -473,7 +484,7 @@
   <dimension ref="A1:I1001"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -533,22 +544,22 @@
         <v>10</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>13</v>
+        <v>22</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>12</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="180" x14ac:dyDescent="0.2">
@@ -559,25 +570,25 @@
         <v>9</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>21</v>
-      </c>
       <c r="F5" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>13</v>
+        <v>23</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>12</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="105" x14ac:dyDescent="0.2">
@@ -588,10 +599,10 @@
         <v>9</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>19</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>23</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>21</v>

--- a/ДЗ/Тестирование api/ДЗ 1 Введение в тестирование API.xlsx
+++ b/ДЗ/Тестирование api/ДЗ 1 Введение в тестирование API.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bjkzn\Тестировщик\SkyPro\ДЗ\Тестирование api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8249BD88-EB59-4051-BAD5-8FA4060F9349}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7066A678-ABED-4C0C-B1AD-AAFB561A0331}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -248,7 +248,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -262,6 +262,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -484,7 +487,7 @@
   <dimension ref="A1:I1001"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="I6" activeCellId="3" sqref="H4 H5 H6 I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -555,7 +558,7 @@
       <c r="G4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="6" t="s">
         <v>12</v>
       </c>
       <c r="I4" s="4" t="s">
@@ -584,7 +587,7 @@
       <c r="G5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="6" t="s">
         <v>12</v>
       </c>
       <c r="I5" s="5" t="s">
@@ -613,10 +616,10 @@
       <c r="G6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="I6" s="6" t="s">
         <v>12</v>
       </c>
     </row>
